--- a/biology/Botanique/Gélose_PDA/Gélose_PDA.xlsx
+++ b/biology/Botanique/Gélose_PDA/Gélose_PDA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_PDA</t>
+          <t>Gélose_PDA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gélose dextrosée à la pomme de terre (en abrégé « PDA », pour Potato dextrose agar) est un milieu de culture microbiologique courant produit à base d'infusion de pomme de terre et de dextrose. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_PDA</t>
+          <t>Gélose_PDA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le milieu de culture le plus largement utilisé pour cultiver des mycètes et des bactéries qui attaquent les plantes vivantes ou la matière organique végétale en décomposition[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le milieu de culture le plus largement utilisé pour cultiver des mycètes et des bactéries qui attaquent les plantes vivantes ou la matière organique végétale en décomposition.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_PDA</t>
+          <t>Gélose_PDA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infusion de pomme de terre se prépare en faisant bouillir dans l'eau 200 g de pommes de terre tranchées (lavées mais non pelées) pendant 30 minutes à 1h puis en laissant décanter le bouillon obtenu ou en le filtrant à travers un coton à fromage. On dilue ensuite en ajoutant de l'eau distillée pour un volume final d'un litre. Puis on ajoute 20 g de dextrose et autant d'agar-agar en poudre avant une stérilisation par autoclave à 100 kPa pendant 15 minutes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infusion de pomme de terre se prépare en faisant bouillir dans l'eau 200 g de pommes de terre tranchées (lavées mais non pelées) pendant 30 minutes à 1h puis en laissant décanter le bouillon obtenu ou en le filtrant à travers un coton à fromage. On dilue ensuite en ajoutant de l'eau distillée pour un volume final d'un litre. Puis on ajoute 20 g de dextrose et autant d'agar-agar en poudre avant une stérilisation par autoclave à 100 kPa pendant 15 minutes.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_PDA</t>
+          <t>Gélose_PDA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Potato dextrose broth</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un milieu de culture similaire (en abrégé « PDB », pour Potato dextrose broth) est préparé de manière identique au PDA, mais en omettant l'agar-agar[3]. Parmi les organismes couramment cultivés sur le PDB figurent des levures, telles que Candida albicans et Saccharomyces cerevisiae, et des moisissures, telle que Aspergillus niger[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un milieu de culture similaire (en abrégé « PDB », pour Potato dextrose broth) est préparé de manière identique au PDA, mais en omettant l'agar-agar. Parmi les organismes couramment cultivés sur le PDB figurent des levures, telles que Candida albicans et Saccharomyces cerevisiae, et des moisissures, telle que Aspergillus niger.
 </t>
         </is>
       </c>
